--- a/ModificacionInventario/Inventario.xlsx
+++ b/ModificacionInventario/Inventario.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\OneDrive\Escritorio\SneakerZone\ModificacionInventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B45AB36-46E3-47CD-963F-63E7096EC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A0F7C9-922E-4156-BB35-20937B572519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{018F4708-CD35-4967-8704-685D357F6246}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{018F4708-CD35-4967-8704-685D357F6246}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="220">
   <si>
     <t>Chanel_Mujer_Sandalias_Blancas_380_26</t>
   </si>
@@ -347,9 +349,6 @@
     <t>Nike Blazer clon espejo 1.1</t>
   </si>
   <si>
-    <t>Nike Blazer clon espejo</t>
-  </si>
-  <si>
     <t>Nike otro precio</t>
   </si>
   <si>
@@ -657,13 +656,58 @@
   </si>
   <si>
     <t>ren "Bodega3_001.jpg" "Nike_Niño_AirForce1_TripleBlanco_450_12-21.5.jpg"</t>
+  </si>
+  <si>
+    <t>Cargado en pagina</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Save in Assets</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok </t>
+  </si>
+  <si>
+    <t>Comentaario</t>
+  </si>
+  <si>
+    <t>Se metieron 32 mas</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>Recortadas</t>
+  </si>
+  <si>
+    <t>New Balance otro precio</t>
+  </si>
+  <si>
+    <t>New balance clon espejo 1.2</t>
+  </si>
+  <si>
+    <t>New balance clon espejo</t>
+  </si>
+  <si>
+    <t>Nike clon espejo</t>
+  </si>
+  <si>
+    <t>Nike clon espejo 1.1</t>
+  </si>
+  <si>
+    <t>Nike clon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,18 +715,133 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -692,11 +851,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,480 +1687,992 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B61514-D970-4CAC-A3D9-B26A55CCED98}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>280</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2*2</f>
+        <v>560</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2-C2</f>
+        <v>280</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>650</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3-C3</f>
+        <v>350</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="10">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>330</v>
+      </c>
+      <c r="D4" s="1">
+        <v>650</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-C4</f>
+        <v>320</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>280</v>
+      </c>
+      <c r="D5" s="1">
+        <v>560</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-C5</f>
+        <v>280</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1">
+        <v>700</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6-C6</f>
+        <v>220</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>330</v>
+      </c>
+      <c r="D7" s="1">
+        <v>650</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7-C7</f>
+        <v>320</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>280</v>
+      </c>
+      <c r="D8" s="1">
+        <v>560</v>
+      </c>
+      <c r="E8" s="1">
+        <f>D8-C8</f>
+        <v>280</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1">
+        <v>600</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9-C9</f>
+        <v>300</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>330</v>
+      </c>
+      <c r="D10" s="1">
+        <v>660</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10-C10</f>
+        <v>330</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>400</v>
+      </c>
+      <c r="D11" s="1">
+        <v>790</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11-C11</f>
+        <v>390</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1">
+        <v>450</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12-C12</f>
+        <v>220</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>300</v>
+      </c>
+      <c r="D13" s="1">
+        <v>680</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13-C13</f>
+        <v>380</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>360</v>
+      </c>
+      <c r="D14" s="1">
+        <v>750</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-C14</f>
+        <v>390</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>330</v>
+      </c>
+      <c r="D15" s="1">
+        <v>670</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15-C15</f>
+        <v>340</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>330</v>
+      </c>
+      <c r="D16" s="1">
+        <v>600</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16-C16</f>
+        <v>270</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>480</v>
+      </c>
+      <c r="D17" s="1">
+        <v>900</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17-C17</f>
+        <v>420</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>380</v>
+      </c>
+      <c r="D18" s="1">
+        <v>740</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18-C18</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>600</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19-C19</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1">
+        <v>670</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20-C20</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>280</v>
+      </c>
+      <c r="D21" s="1">
+        <v>560</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21-C21</f>
+        <v>280</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>360</v>
+      </c>
+      <c r="D22" s="1">
+        <v>700</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22-C22</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>360</v>
+      </c>
+      <c r="D23" s="1">
+        <v>650</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23-C23</f>
+        <v>290</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>300</v>
+      </c>
+      <c r="D24" s="1">
+        <v>620</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24-C24</f>
+        <v>320</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>300</v>
+      </c>
+      <c r="D25" s="1">
+        <v>650</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25-C25</f>
+        <v>350</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>330</v>
+      </c>
+      <c r="D26" s="1">
+        <v>680</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26-C26</f>
+        <v>350</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>250</v>
+      </c>
+      <c r="D27" s="1">
+        <v>430</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1">
+        <v>280</v>
+      </c>
+      <c r="D28" s="1">
+        <v>480</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>330</v>
+      </c>
+      <c r="D29" s="1">
+        <v>450</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29-C29</f>
+        <v>120</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>280</v>
+      </c>
+      <c r="D30" s="1">
+        <v>520</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30-C30</f>
+        <v>240</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>300</v>
+      </c>
+      <c r="D31" s="1">
+        <v>620</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31-C31</f>
+        <v>320</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>330</v>
+      </c>
+      <c r="D32" s="1">
+        <v>660</v>
+      </c>
+      <c r="E32" s="1">
+        <f>D32-C32</f>
+        <v>330</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>280</v>
+      </c>
+      <c r="D33" s="1">
+        <v>550</v>
+      </c>
+      <c r="E33" s="1">
+        <f>D33-C33</f>
+        <v>270</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C34" s="1">
         <v>180</v>
       </c>
-      <c r="D2">
+      <c r="D34" s="1">
         <v>300</v>
       </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-      <c r="D3">
-        <v>430</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4">
-        <v>42</v>
-      </c>
-      <c r="C4">
+      <c r="F34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
         <v>280</v>
       </c>
-      <c r="D4">
-        <v>480</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5">
+      <c r="D35" s="1">
+        <v>600</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35-C35</f>
+        <v>320</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C36" s="1">
         <v>280</v>
       </c>
-      <c r="D5">
-        <f>C5*2</f>
+      <c r="D36" s="1">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7">
-        <v>300</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>330</v>
-      </c>
-      <c r="D8">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>330</v>
-      </c>
-      <c r="D9">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="E36" s="1">
+        <f>D36-C36</f>
         <v>280</v>
       </c>
-      <c r="D10">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
+      <c r="F36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
         <v>280</v>
       </c>
-      <c r="D11">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>360</v>
-      </c>
-      <c r="D13">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>330</v>
-      </c>
-      <c r="D14">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>360</v>
-      </c>
-      <c r="D15">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>300</v>
-      </c>
-      <c r="D16">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>330</v>
-      </c>
-      <c r="D17">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>480</v>
-      </c>
-      <c r="D18">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>280</v>
-      </c>
-      <c r="D19">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>300</v>
-      </c>
-      <c r="D20">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>300</v>
-      </c>
-      <c r="D21">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>400</v>
-      </c>
-      <c r="D22">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>330</v>
-      </c>
-      <c r="D23">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>280</v>
-      </c>
-      <c r="D24">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>280</v>
-      </c>
-      <c r="D25">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>280</v>
-      </c>
-      <c r="D26">
+      <c r="D37" s="1">
         <v>540</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>330</v>
-      </c>
-      <c r="D27">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>480</v>
-      </c>
-      <c r="D28">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>280</v>
-      </c>
-      <c r="D29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>230</v>
-      </c>
-      <c r="D30">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>330</v>
-      </c>
-      <c r="D31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>330</v>
-      </c>
-      <c r="D32">
-        <v>450</v>
+      <c r="E37" s="1">
+        <f>D37-C37</f>
+        <v>260</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{17B61514-D970-4CAC-A3D9-B26A55CCED98}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I32">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2013,338 +2693,338 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
